--- a/WSFrontend/org.openl.rules.ruleservice/test-resources/RuleServiceDeploymentRelatedDependencyManagerTest/project2/Module2_1.xlsx
+++ b/WSFrontend/org.openl.rules.ruleservice/test-resources/RuleServiceDeploymentRelatedDependencyManagerTest/project2/Module2_1.xlsx
@@ -70,10 +70,10 @@
     <t>return "project2"+print(beans2[0]);</t>
   </si>
   <si>
-    <t>Method String print(TestBean bean)</t>
-  </si>
-  <si>
-    <t>Data TestBean beans2</t>
+    <t>Data JavaBean beans2</t>
+  </si>
+  <si>
+    <t>Method String print(JavaBean bean)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +219,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,7 +326,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -398,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <dimension ref="B3:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -602,7 +602,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="F4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="9"/>
     </row>
